--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H2">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I2">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J2">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N2">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O2">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P2">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q2">
-        <v>4.221785040922111</v>
+        <v>5.888495411344444</v>
       </c>
       <c r="R2">
-        <v>37.996065368299</v>
+        <v>52.99645870209999</v>
       </c>
       <c r="S2">
-        <v>0.02194787846890836</v>
+        <v>0.02580127677384903</v>
       </c>
       <c r="T2">
-        <v>0.02194787846890837</v>
+        <v>0.02580127677384903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H3">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I3">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J3">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q3">
-        <v>2.475939261283667</v>
+        <v>3.603470433501666</v>
       </c>
       <c r="R3">
-        <v>22.283453351553</v>
+        <v>32.431233901515</v>
       </c>
       <c r="S3">
-        <v>0.01287171503909245</v>
+        <v>0.01578911615045832</v>
       </c>
       <c r="T3">
-        <v>0.01287171503909245</v>
+        <v>0.01578911615045832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H4">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I4">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J4">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N4">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q4">
-        <v>1.01282807458</v>
+        <v>2.895070830008888</v>
       </c>
       <c r="R4">
-        <v>9.11545267122</v>
+        <v>26.05563747007999</v>
       </c>
       <c r="S4">
-        <v>0.005265409601698953</v>
+        <v>0.01268516294010352</v>
       </c>
       <c r="T4">
-        <v>0.005265409601698956</v>
+        <v>0.01268516294010352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H5">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I5">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J5">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N5">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q5">
-        <v>0.7142668142565555</v>
+        <v>1.556271349546111</v>
       </c>
       <c r="R5">
-        <v>6.428401328309</v>
+        <v>14.006442145915</v>
       </c>
       <c r="S5">
-        <v>0.00371327319646127</v>
+        <v>0.006819023370128257</v>
       </c>
       <c r="T5">
-        <v>0.003713273196461271</v>
+        <v>0.006819023370128257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H6">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I6">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J6">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N6">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q6">
-        <v>1.546858049221555</v>
+        <v>2.873561505650555</v>
       </c>
       <c r="R6">
-        <v>13.921722442994</v>
+        <v>25.862053550855</v>
       </c>
       <c r="S6">
-        <v>0.008041681929298808</v>
+        <v>0.01259091678854524</v>
       </c>
       <c r="T6">
-        <v>0.008041681929298808</v>
+        <v>0.01259091678854523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>12.702779</v>
       </c>
       <c r="I7">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J7">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N7">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O7">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P7">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q7">
-        <v>75.47056498407589</v>
+        <v>72.32773232334888</v>
       </c>
       <c r="R7">
-        <v>679.235084856683</v>
+        <v>650.9495909101399</v>
       </c>
       <c r="S7">
-        <v>0.3923503381139837</v>
+        <v>0.3169142046887523</v>
       </c>
       <c r="T7">
-        <v>0.3923503381139837</v>
+        <v>0.3169142046887523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>12.702779</v>
       </c>
       <c r="I8">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J8">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.359219</v>
       </c>
       <c r="O8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q8">
         <v>44.26102539662233</v>
@@ -948,10 +948,10 @@
         <v>398.349228569601</v>
       </c>
       <c r="S8">
-        <v>0.2301006794278079</v>
+        <v>0.1939359525274519</v>
       </c>
       <c r="T8">
-        <v>0.2301006794278079</v>
+        <v>0.1939359525274518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>12.702779</v>
       </c>
       <c r="I9">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J9">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N9">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q9">
-        <v>18.10577901986</v>
+        <v>35.55983208318577</v>
       </c>
       <c r="R9">
-        <v>162.95201117874</v>
+        <v>320.038488748672</v>
       </c>
       <c r="S9">
-        <v>0.09412687611068009</v>
+        <v>0.155810441465623</v>
       </c>
       <c r="T9">
-        <v>0.09412687611068012</v>
+        <v>0.155810441465623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>12.702779</v>
       </c>
       <c r="I10">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J10">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N10">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q10">
-        <v>12.76856104676144</v>
+        <v>19.11550739695122</v>
       </c>
       <c r="R10">
-        <v>114.917049420853</v>
+        <v>172.039566572561</v>
       </c>
       <c r="S10">
-        <v>0.066380174111363</v>
+        <v>0.08375730344819782</v>
       </c>
       <c r="T10">
-        <v>0.06638017411136302</v>
+        <v>0.08375730344819782</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>12.702779</v>
       </c>
       <c r="I11">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J11">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N11">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q11">
-        <v>27.65234368716644</v>
+        <v>35.29563545128411</v>
       </c>
       <c r="R11">
-        <v>248.871093184498</v>
+        <v>317.660719061557</v>
       </c>
       <c r="S11">
-        <v>0.1437567930966601</v>
+        <v>0.154652826498431</v>
       </c>
       <c r="T11">
-        <v>0.1437567930966601</v>
+        <v>0.154652826498431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H12">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I12">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J12">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N12">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O12">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P12">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q12">
-        <v>0.4755031318686667</v>
+        <v>0.47011851084</v>
       </c>
       <c r="R12">
-        <v>4.279528186818001</v>
+        <v>4.23106659756</v>
       </c>
       <c r="S12">
-        <v>0.002472007657585366</v>
+        <v>0.002059890849422125</v>
       </c>
       <c r="T12">
-        <v>0.002472007657585366</v>
+        <v>0.002059890849422124</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H13">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I13">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J13">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.359219</v>
       </c>
       <c r="O13">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P13">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q13">
-        <v>0.278867081494</v>
+        <v>0.287689475106</v>
       </c>
       <c r="R13">
-        <v>2.509803733446</v>
+        <v>2.589205275954</v>
       </c>
       <c r="S13">
-        <v>0.001449751883215884</v>
+        <v>0.001260552187547433</v>
       </c>
       <c r="T13">
-        <v>0.001449751883215884</v>
+        <v>0.001260552187547433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H14">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I14">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J14">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N14">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O14">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P14">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q14">
-        <v>0.11407566156</v>
+        <v>0.231133132032</v>
       </c>
       <c r="R14">
-        <v>1.02668095404</v>
+        <v>2.080198188288</v>
       </c>
       <c r="S14">
-        <v>0.0005930474270741994</v>
+        <v>0.001012742558935382</v>
       </c>
       <c r="T14">
-        <v>0.0005930474270741995</v>
+        <v>0.001012742558935381</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H15">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I15">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J15">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N15">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O15">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P15">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q15">
-        <v>0.08044846051533334</v>
+        <v>0.124247692866</v>
       </c>
       <c r="R15">
-        <v>0.724036144638</v>
+        <v>1.118229235794</v>
       </c>
       <c r="S15">
-        <v>0.0004182290233364548</v>
+        <v>0.0005444088664774772</v>
       </c>
       <c r="T15">
-        <v>0.0004182290233364548</v>
+        <v>0.0005444088664774772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H16">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I16">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J16">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N16">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O16">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P16">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q16">
-        <v>0.1742238981453333</v>
+        <v>0.229415896842</v>
       </c>
       <c r="R16">
-        <v>1.568015083308</v>
+        <v>2.064743071578</v>
       </c>
       <c r="S16">
-        <v>0.0009057412695834585</v>
+        <v>0.00100521824969713</v>
       </c>
       <c r="T16">
-        <v>0.0009057412695834584</v>
+        <v>0.00100521824969713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H17">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I17">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J17">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N17">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O17">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P17">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q17">
-        <v>1.270967101177111</v>
+        <v>1.227554442597778</v>
       </c>
       <c r="R17">
-        <v>11.438703910594</v>
+        <v>11.04798998338</v>
       </c>
       <c r="S17">
-        <v>0.00660740213066917</v>
+        <v>0.005378703678263015</v>
       </c>
       <c r="T17">
-        <v>0.006607402130669173</v>
+        <v>0.005378703678263015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H18">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I18">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J18">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.359219</v>
       </c>
       <c r="O18">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P18">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q18">
-        <v>0.7453807607686666</v>
+        <v>0.7512031224296667</v>
       </c>
       <c r="R18">
-        <v>6.708426846917999</v>
+        <v>6.760828101867</v>
       </c>
       <c r="S18">
-        <v>0.00387502589351161</v>
+        <v>0.003291502891867278</v>
       </c>
       <c r="T18">
-        <v>0.00387502589351161</v>
+        <v>0.003291502891867278</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H19">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I19">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J19">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N19">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O19">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P19">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q19">
-        <v>0.3049115834799999</v>
+        <v>0.6035254866915555</v>
       </c>
       <c r="R19">
-        <v>2.74420425132</v>
+        <v>5.431729380224</v>
       </c>
       <c r="S19">
-        <v>0.001585149957450169</v>
+        <v>0.002644432411750063</v>
       </c>
       <c r="T19">
-        <v>0.00158514995745017</v>
+        <v>0.002644432411750063</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H20">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I20">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J20">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N20">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O20">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P20">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q20">
-        <v>0.2150298069615555</v>
+        <v>0.3244305506874444</v>
       </c>
       <c r="R20">
-        <v>1.935268262654</v>
+        <v>2.919874956187</v>
       </c>
       <c r="S20">
-        <v>0.001117879765227041</v>
+        <v>0.001421538414728565</v>
       </c>
       <c r="T20">
-        <v>0.001117879765227042</v>
+        <v>0.001421538414728566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H21">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I21">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J21">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N21">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O21">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P21">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q21">
-        <v>0.4656811447515555</v>
+        <v>0.5990415116132223</v>
       </c>
       <c r="R21">
-        <v>4.191130302763999</v>
+        <v>5.391373604519001</v>
       </c>
       <c r="S21">
-        <v>0.00242094589639194</v>
+        <v>0.002624785239771253</v>
       </c>
       <c r="T21">
-        <v>0.00242094589639194</v>
+        <v>0.002624785239771253</v>
       </c>
     </row>
   </sheetData>
